--- a/single_2/single_2/bin/Debug/CarDetails.xlsx
+++ b/single_2/single_2/bin/Debug/CarDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -261,6 +261,75 @@
   </si>
   <si>
     <t>187hp</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>Car Image</t>
+  </si>
+  <si>
+    <t>A_Class.jpg</t>
+  </si>
+  <si>
+    <t>AMG_Class.jpg</t>
+  </si>
+  <si>
+    <t>B_class.jpg</t>
+  </si>
+  <si>
+    <t>C_Class.jpg</t>
+  </si>
+  <si>
+    <t>GLE_Class.jpg</t>
+  </si>
+  <si>
+    <t>320.jpg</t>
+  </si>
+  <si>
+    <t>428_Gran.jpg</t>
+  </si>
+  <si>
+    <t>540d.png</t>
+  </si>
+  <si>
+    <t>X3.jpg</t>
+  </si>
+  <si>
+    <t>X7.jpg</t>
+  </si>
+  <si>
+    <t>golf.jpg</t>
+  </si>
+  <si>
+    <t>bettle.jpg</t>
+  </si>
+  <si>
+    <t>passat.jpg</t>
+  </si>
+  <si>
+    <t>optima.jpg</t>
+  </si>
+  <si>
+    <t>cadenza.jpg</t>
+  </si>
+  <si>
+    <t>forte.jpg</t>
+  </si>
+  <si>
+    <t>smart.jpg</t>
+  </si>
+  <si>
+    <t>evoque.jpg</t>
+  </si>
+  <si>
+    <t>discovery.jpg</t>
+  </si>
+  <si>
+    <t>Mazda_CX3.jpg</t>
+  </si>
+  <si>
+    <t>mazda_CX5.jpg</t>
   </si>
 </sst>
 </file>
@@ -840,7 +909,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -848,15 +917,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -887,6 +947,21 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1230,10 +1305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1242,14 +1317,14 @@
     <col min="2" max="2" width="13.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="13.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="8" width="13.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1268,834 +1343,913 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="5">
         <v>2018</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="5">
         <v>31969.54</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6"/>
+      <c r="H2" s="5">
         <v>5</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="7">
         <v>64</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15"/>
+      <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="5">
         <v>2014</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>46210.32</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6"/>
+      <c r="H3" s="5">
         <v>4</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="7">
         <v>61</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="7" t="s">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15"/>
+      <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="5">
         <v>2015</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>66822.789999999994</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="6"/>
+      <c r="H4" s="5">
         <v>4</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6"/>
-      <c r="B5" s="7" t="s">
+    <row r="5" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>2019</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>75221.649999999994</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="6"/>
+      <c r="H5" s="5">
         <v>5</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="12">
+      <c r="I5" s="4"/>
+      <c r="J5" s="9">
         <v>320</v>
       </c>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7" t="s">
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="5">
         <v>2017</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>28680</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6"/>
+      <c r="H6" s="5">
         <v>5</v>
       </c>
-      <c r="H6" s="8">
+      <c r="I6" s="5">
         <v>63</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="J6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="K6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="7" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+    </row>
+    <row r="8" spans="1:11" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="5">
         <v>2019</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="5">
         <v>26796</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="5">
         <v>5</v>
       </c>
-      <c r="H8" s="8">
+      <c r="I8" s="5">
         <v>50</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="J8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="15"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="5">
         <v>2017</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="5">
         <v>327160</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" s="5">
         <v>5</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="K9" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="15"/>
-      <c r="B10" s="7" t="s">
+    <row r="10" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="5">
         <v>2018</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="5">
         <v>32996</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="8">
+      <c r="F10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="5">
         <v>5</v>
       </c>
-      <c r="H10" s="8">
+      <c r="I10" s="5">
         <v>65</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="J10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="15"/>
-      <c r="B11" s="7" t="s">
+    <row r="11" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="5">
         <v>2018</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="5">
         <v>42556</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="5">
         <v>5</v>
       </c>
-      <c r="H11" s="8">
+      <c r="I11" s="5">
         <v>93</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="J11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="15"/>
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>2019</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>79996</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="5">
         <v>4</v>
       </c>
-      <c r="H12" s="8">
+      <c r="I12" s="5">
         <v>65</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="J12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="K12" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="5">
         <v>2016</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="5">
         <v>34116</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="5">
         <v>5</v>
       </c>
-      <c r="H14" s="8">
+      <c r="I14" s="5">
         <v>60</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="J14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15"/>
-      <c r="B15" s="7">
+    <row r="15" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="4">
         <v>320</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="5">
         <v>2018</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="5">
         <v>28716</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="5">
         <v>5</v>
       </c>
-      <c r="H15" s="8">
+      <c r="I15" s="5">
         <v>60</v>
       </c>
-      <c r="I15" s="7" t="s">
+      <c r="J15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="7" t="s">
+      <c r="K15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15"/>
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="5">
         <v>2019</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="5">
         <v>50996</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="5">
         <v>5</v>
       </c>
-      <c r="H16" s="8">
+      <c r="I16" s="5">
         <v>66</v>
       </c>
-      <c r="I16" s="7" t="s">
+      <c r="J16" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="14"/>
-    </row>
-    <row r="17" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15"/>
-      <c r="B17" s="7" t="s">
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="5">
         <v>2018</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>34916</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="5">
         <v>5</v>
       </c>
-      <c r="H17" s="8">
+      <c r="I17" s="5">
         <v>65</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="J17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="7" t="s">
+    <row r="18" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="5">
         <v>2019</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="5">
         <v>59916</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="5">
         <v>7</v>
       </c>
-      <c r="H18" s="8">
+      <c r="I18" s="5">
         <v>83</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="J18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="K18" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="L18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="5">
         <v>2019</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="5">
         <v>18192</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="5">
         <v>5</v>
       </c>
-      <c r="H20" s="8">
+      <c r="I20" s="5">
         <v>50</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="J20" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="7" t="s">
+    <row r="21" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="12"/>
+      <c r="B21" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="5">
         <v>2018</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="5">
         <v>16892</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H21" s="5">
         <v>4</v>
       </c>
-      <c r="H21" s="8">
+      <c r="I21" s="5">
         <v>55</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="J21" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="K21" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="15"/>
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12"/>
+      <c r="B22" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="5">
         <v>2017</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="5">
         <v>18608</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="H22" s="5">
         <v>5</v>
       </c>
-      <c r="H22" s="8">
+      <c r="I22" s="5">
         <v>70</v>
       </c>
-      <c r="I22" s="7" t="s">
+      <c r="J22" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5">
         <v>2019</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="5">
         <v>19132</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="5">
         <v>5</v>
       </c>
-      <c r="H23" s="8">
+      <c r="I23" s="5">
         <v>84</v>
       </c>
-      <c r="I23" s="7" t="s">
+      <c r="J23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15"/>
-      <c r="B24" s="7" t="s">
+    <row r="24" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12"/>
+      <c r="B24" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="5">
         <v>2018</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="5">
         <v>26552</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H24" s="5">
         <v>5</v>
       </c>
-      <c r="H24" s="8">
+      <c r="I24" s="5">
         <v>84</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="J24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15"/>
-      <c r="B25" s="7" t="s">
+    <row r="25" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12"/>
+      <c r="B25" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="5">
         <v>2016</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="5">
         <v>16592</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="5">
         <v>5</v>
       </c>
-      <c r="H25" s="8">
+      <c r="I25" s="5">
         <v>60</v>
       </c>
-      <c r="I25" s="7" t="s">
+      <c r="J25" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="5">
         <v>2018</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="5">
         <v>19640</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="5">
         <v>2</v>
       </c>
-      <c r="H26" s="7" t="s">
+      <c r="I26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="J26" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="7" t="s">
+      <c r="K26" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7" t="s">
+    <row r="27" spans="1:12" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="5">
         <v>2019</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="5">
         <v>34236</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="H27" s="5">
         <v>5</v>
       </c>
-      <c r="H27" s="8">
+      <c r="I27" s="5">
         <v>82</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="J27" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="7" t="s">
+      <c r="K27" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="15"/>
-      <c r="B28" s="7" t="s">
+    <row r="28" spans="1:12" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="5">
         <v>2019</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="5">
         <v>43180</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="H28" s="5">
         <v>7</v>
       </c>
-      <c r="H28" s="8">
+      <c r="I28" s="5">
         <v>107</v>
       </c>
-      <c r="I28" s="7" t="s">
+      <c r="J28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J28" s="7" t="s">
+      <c r="K28" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:12" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="5">
         <v>2019</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="5">
         <v>17148</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" s="5">
         <v>5</v>
       </c>
-      <c r="H29" s="15"/>
-      <c r="I29" s="7" t="s">
+      <c r="I29" s="12"/>
+      <c r="J29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J29" s="7" t="s">
+      <c r="K29" s="4" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="15"/>
-      <c r="B30" s="7" t="s">
+    <row r="30" spans="1:12" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="12"/>
+      <c r="B30" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="5">
         <v>2018</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="5">
         <v>20116</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="E30" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="H30" s="5">
         <v>5</v>
       </c>
-      <c r="H30" s="15"/>
-      <c r="I30" s="7" t="s">
+      <c r="I30" s="12"/>
+      <c r="J30" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="K30" s="13" t="s">
         <v>78</v>
       </c>
     </row>

--- a/single_2/single_2/bin/Debug/CarDetails.xlsx
+++ b/single_2/single_2/bin/Debug/CarDetails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="109">
   <si>
     <t>Manufacturer</t>
   </si>
@@ -330,6 +330,21 @@
   </si>
   <si>
     <t>mazda_CX5.jpg</t>
+  </si>
+  <si>
+    <t>Q3.jpeg</t>
+  </si>
+  <si>
+    <t>S5.jpeg</t>
+  </si>
+  <si>
+    <t>RS5.jpeg</t>
+  </si>
+  <si>
+    <t>S3.png</t>
+  </si>
+  <si>
+    <t>A4.jpeg</t>
   </si>
 </sst>
 </file>
@@ -948,6 +963,12 @@
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -956,12 +977,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1307,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1343,7 +1358,7 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>82</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -1360,7 +1375,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1378,7 +1393,9 @@
       <c r="F2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6"/>
+      <c r="G2" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H2" s="5">
         <v>5</v>
       </c>
@@ -1393,7 +1410,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1409,7 +1426,9 @@
       <c r="F3" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>105</v>
+      </c>
       <c r="H3" s="5">
         <v>4</v>
       </c>
@@ -1424,7 +1443,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="4" t="s">
         <v>20</v>
       </c>
@@ -1440,7 +1459,9 @@
       <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="H4" s="5">
         <v>4</v>
       </c>
@@ -1453,7 +1474,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
@@ -1469,7 +1490,9 @@
       <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>107</v>
+      </c>
       <c r="H5" s="5">
         <v>5</v>
       </c>
@@ -1480,7 +1503,7 @@
       <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1496,7 +1519,9 @@
       <c r="F6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>108</v>
+      </c>
       <c r="H6" s="5">
         <v>5</v>
       </c>
@@ -1511,7 +1536,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="11"/>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
@@ -1755,7 +1780,7 @@
       <c r="F15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="G15" s="15" t="s">
         <v>88</v>
       </c>
       <c r="H15" s="5">
